--- a/ETF合并筛选结果-弱.xlsx
+++ b/ETF合并筛选结果-弱.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t>symbol</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>中证500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>SHSE.513090</t>
@@ -2204,13 +2207,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13.1071428571429" customWidth="1"/>
     <col min="3" max="3" width="7.55714285714286" customWidth="1"/>
@@ -2219,7 +2222,7 @@
     <col min="6" max="6" width="26.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>264</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>24</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>47</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2335,205 +2338,208 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>513090</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>5372980162</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>588000</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>4304130319</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>159206</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>3914546331.945</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>588200</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>3507084659</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>159915</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>3018742908.302</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>159516</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
         <v>2259758441.945</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>402</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>512880</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>2173364060</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>515790</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1">
         <v>2013211824</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>563230</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1">
         <v>1968912448</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>159870</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>1826816234.266</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2541,19 +2547,19 @@
         <v>345</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>512400</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1">
         <v>1784756989</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2561,19 +2567,19 @@
         <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>159792</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1">
         <v>1553523021.038</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2581,19 +2587,19 @@
         <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>512480</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1">
         <v>1500380606</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2601,19 +2607,19 @@
         <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>159326</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1">
         <v>1490547804.728</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2621,19 +2627,19 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>512980</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
         <v>1487449650</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2641,19 +2647,19 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>588080</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1">
         <v>1403357870</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2661,19 +2667,19 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>588170</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1">
         <v>1365688980</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2681,19 +2687,19 @@
         <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>562500</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1">
         <v>1317074655</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2701,19 +2707,19 @@
         <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>159570</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1">
         <v>1166132718.891</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2721,19 +2727,19 @@
         <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>159995</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1">
         <v>1157948262.152</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2741,19 +2747,19 @@
         <v>413</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>159852</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1">
         <v>1155073578.407</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2761,19 +2767,19 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>159949</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1">
         <v>1082099193.815</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2781,19 +2787,19 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>512710</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1">
         <v>1079411157</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2801,19 +2807,19 @@
         <v>332</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30">
         <v>513750</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1">
         <v>1077596599</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2821,19 +2827,19 @@
         <v>418</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>515880</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1">
         <v>986367318</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2841,19 +2847,19 @@
         <v>394</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>159227</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1">
         <v>854792749.142</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2861,19 +2867,19 @@
         <v>428</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>512800</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1">
         <v>829970100</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2881,19 +2887,19 @@
         <v>425</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34">
         <v>159851</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1">
         <v>815745503.86</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2901,19 +2907,19 @@
         <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>512070</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1">
         <v>813294420</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2921,19 +2927,19 @@
         <v>393</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36">
         <v>159201</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1">
         <v>737237085.2</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2941,19 +2947,19 @@
         <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>512010</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1">
         <v>727230686</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2961,19 +2967,19 @@
         <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>159755</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1">
         <v>724669714.725</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2981,19 +2987,19 @@
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>512170</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1">
         <v>721716526</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3001,19 +3007,19 @@
         <v>422</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40">
         <v>512690</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1">
         <v>719976289</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3021,19 +3027,19 @@
         <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41">
         <v>517520</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1">
         <v>714750361</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3041,19 +3047,19 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42">
         <v>563300</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1">
         <v>713653657</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3061,19 +3067,19 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43">
         <v>159819</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="1">
         <v>691106465.886</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3081,19 +3087,19 @@
         <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44">
         <v>159869</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1">
         <v>686392111.942</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3101,19 +3107,19 @@
         <v>384</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45">
         <v>512890</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1">
         <v>649624390</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3121,19 +3127,19 @@
         <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>159992</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1">
         <v>635984492.214</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3141,19 +3147,19 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47">
         <v>588220</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1">
         <v>630969181</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3161,19 +3167,19 @@
         <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48">
         <v>560860</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1">
         <v>602044824</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3181,19 +3187,19 @@
         <v>226</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49">
         <v>512200</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E49" s="1">
         <v>592585962</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3201,19 +3207,19 @@
         <v>411</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50">
         <v>515230</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E50" s="1">
         <v>591126976</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3221,19 +3227,19 @@
         <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51">
         <v>159363</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="1">
         <v>575086153.719</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3241,19 +3247,19 @@
         <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52">
         <v>159636</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" s="1">
         <v>535346111.7</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3261,19 +3267,19 @@
         <v>337</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53">
         <v>515220</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E53" s="1">
         <v>530032681</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3281,19 +3287,19 @@
         <v>232</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54">
         <v>516160</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E54" s="1">
         <v>518771309</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3301,19 +3307,19 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55">
         <v>510880</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E55" s="1">
         <v>494701122</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3321,19 +3327,19 @@
         <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56">
         <v>516650</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E56" s="1">
         <v>487559622</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3341,19 +3347,19 @@
         <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57">
         <v>516120</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E57" s="1">
         <v>485769813</v>
       </c>
       <c r="F57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3361,19 +3367,19 @@
         <v>259</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58">
         <v>513630</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E58" s="1">
         <v>481833947</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3381,19 +3387,19 @@
         <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59">
         <v>159883</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1">
         <v>458740162.908</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3401,19 +3407,19 @@
         <v>211</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60">
         <v>513920</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E60" s="1">
         <v>457159336</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3421,19 +3427,19 @@
         <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61">
         <v>520980</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E61" s="1">
         <v>455004171</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3441,19 +3447,19 @@
         <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62">
         <v>515980</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1">
         <v>439123254</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3461,19 +3467,19 @@
         <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63">
         <v>513980</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E63" s="1">
         <v>420010422</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3481,19 +3487,19 @@
         <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64">
         <v>159316</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" s="1">
         <v>412088616.976</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3501,19 +3507,19 @@
         <v>367</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65">
         <v>588790</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1">
         <v>402150881</v>
       </c>
       <c r="F65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3521,19 +3527,19 @@
         <v>378</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>562800</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E66" s="1">
         <v>388122084</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3541,19 +3547,19 @@
         <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67">
         <v>159262</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E67" s="1">
         <v>381313217.264</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3561,19 +3567,19 @@
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68">
         <v>159928</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E68" s="1">
         <v>376936876.294</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3581,19 +3587,19 @@
         <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69">
         <v>512670</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1">
         <v>366030611</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3601,19 +3607,19 @@
         <v>318</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70">
         <v>513190</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E70" s="1">
         <v>347782166</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3621,19 +3627,19 @@
         <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C71">
         <v>520880</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E71" s="1">
         <v>347619116</v>
       </c>
       <c r="F71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3641,19 +3647,19 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C72">
         <v>512760</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E72" s="1">
         <v>345742156</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3661,19 +3667,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73">
         <v>588830</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E73" s="1">
         <v>338571588</v>
       </c>
       <c r="F73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3681,19 +3687,19 @@
         <v>351</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74">
         <v>159796</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E74" s="1">
         <v>332005032.074</v>
       </c>
       <c r="F74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3701,19 +3707,19 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C75">
         <v>510210</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E75" s="1">
         <v>326697659</v>
       </c>
       <c r="F75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3721,19 +3727,19 @@
         <v>395</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76">
         <v>563380</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E76" s="1">
         <v>312031222</v>
       </c>
       <c r="F76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3741,19 +3747,19 @@
         <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C77">
         <v>159566</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E77" s="1">
         <v>294182480.233</v>
       </c>
       <c r="F77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3761,19 +3767,19 @@
         <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C78">
         <v>159766</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E78" s="1">
         <v>283382954.7</v>
       </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3781,19 +3787,19 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C79">
         <v>588760</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E79" s="1">
         <v>281197622</v>
       </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3801,19 +3807,19 @@
         <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80">
         <v>561380</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E80" s="1">
         <v>270867997</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3821,19 +3827,19 @@
         <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C81">
         <v>520990</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E81" s="1">
         <v>269042512</v>
       </c>
       <c r="F81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3841,19 +3847,19 @@
         <v>233</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82">
         <v>515030</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E82" s="1">
         <v>268516783</v>
       </c>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3861,19 +3867,19 @@
         <v>334</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83">
         <v>159691</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E83" s="1">
         <v>265350434.6</v>
       </c>
       <c r="F83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3881,19 +3887,19 @@
         <v>377</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C84">
         <v>516150</v>
       </c>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E84" s="1">
         <v>253812189</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3901,19 +3907,19 @@
         <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85">
         <v>516520</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E85" s="1">
         <v>247719249</v>
       </c>
       <c r="F85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3921,19 +3927,19 @@
         <v>301</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C86">
         <v>159901</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E86" s="1">
         <v>245288858.66</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3941,19 +3947,19 @@
         <v>323</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C87">
         <v>513910</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E87" s="1">
         <v>243178572</v>
       </c>
       <c r="F87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3961,19 +3967,19 @@
         <v>371</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C88">
         <v>588780</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E88" s="1">
         <v>238860395</v>
       </c>
       <c r="F88" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3981,19 +3987,19 @@
         <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C89">
         <v>588230</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E89" s="1">
         <v>234922691</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4001,19 +4007,19 @@
         <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C90">
         <v>159506</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E90" s="1">
         <v>229536716.9</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4021,19 +4027,19 @@
         <v>222</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91">
         <v>513690</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E91" s="1">
         <v>227208367</v>
       </c>
       <c r="F91" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4041,19 +4047,19 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92">
         <v>515050</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E92" s="1">
         <v>220154833</v>
       </c>
       <c r="F92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4061,19 +4067,19 @@
         <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93">
         <v>159745</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E93" s="1">
         <v>220023131.432</v>
       </c>
       <c r="F93" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4081,19 +4087,19 @@
         <v>348</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94">
         <v>159611</v>
       </c>
       <c r="D94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E94" s="1">
         <v>218580685.963</v>
       </c>
       <c r="F94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4101,19 +4107,19 @@
         <v>382</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95">
         <v>515080</v>
       </c>
       <c r="D95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E95" s="1">
         <v>217023117</v>
       </c>
       <c r="F95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4121,19 +4127,19 @@
         <v>427</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C96">
         <v>515210</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E96" s="1">
         <v>216076026</v>
       </c>
       <c r="F96" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4141,19 +4147,19 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97">
         <v>159887</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E97" s="1">
         <v>202688701.084</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4161,19 +4167,19 @@
         <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C98">
         <v>159967</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E98" s="1">
         <v>201292294.489</v>
       </c>
       <c r="F98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4181,19 +4187,19 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C99">
         <v>512090</v>
       </c>
       <c r="D99" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E99" s="1">
         <v>196145740</v>
       </c>
       <c r="F99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4201,19 +4207,19 @@
         <v>419</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100">
         <v>159583</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E100" s="1">
         <v>195821796.4</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4221,19 +4227,19 @@
         <v>356</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C101">
         <v>159731</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E101" s="1">
         <v>195071502.635</v>
       </c>
       <c r="F101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4241,19 +4247,19 @@
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C102">
         <v>159107</v>
       </c>
       <c r="D102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E102" s="1">
         <v>188151391.686</v>
       </c>
       <c r="F102" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4261,19 +4267,19 @@
         <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C103">
         <v>589000</v>
       </c>
       <c r="D103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E103" s="1">
         <v>183856309</v>
       </c>
       <c r="F103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4281,19 +4287,19 @@
         <v>364</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C104">
         <v>159781</v>
       </c>
       <c r="D104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E104" s="1">
         <v>177957941.069</v>
       </c>
       <c r="F104" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4301,19 +4307,19 @@
         <v>270</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C105">
         <v>515300</v>
       </c>
       <c r="D105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E105" s="1">
         <v>166268079</v>
       </c>
       <c r="F105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4321,19 +4327,19 @@
         <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C106">
         <v>516510</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E106" s="1">
         <v>165950479</v>
       </c>
       <c r="F106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4341,19 +4347,19 @@
         <v>400</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C107">
         <v>159998</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E107" s="1">
         <v>163866440.455</v>
       </c>
       <c r="F107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4361,19 +4367,19 @@
         <v>320</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C108">
         <v>159366</v>
       </c>
       <c r="D108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E108" s="1">
         <v>160820245.8</v>
       </c>
       <c r="F108" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4381,19 +4387,19 @@
         <v>388</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C109">
         <v>159758</v>
       </c>
       <c r="D109" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E109" s="1">
         <v>151906225.3</v>
       </c>
       <c r="F109" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4401,19 +4407,19 @@
         <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C110">
         <v>159399</v>
       </c>
       <c r="D110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E110" s="1">
         <v>151616671.895</v>
       </c>
       <c r="F110" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4421,19 +4427,19 @@
         <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111">
         <v>589720</v>
       </c>
       <c r="D111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E111" s="1">
         <v>145137553</v>
       </c>
       <c r="F111" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4441,19 +4447,19 @@
         <v>322</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C112">
         <v>513700</v>
       </c>
       <c r="D112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E112" s="1">
         <v>144421564</v>
       </c>
       <c r="F112" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4461,19 +4467,19 @@
         <v>372</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C113">
         <v>515000</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E113" s="1">
         <v>143739066</v>
       </c>
       <c r="F113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4481,19 +4487,19 @@
         <v>197</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C114">
         <v>560280</v>
       </c>
       <c r="D114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E114" s="1">
         <v>143039460</v>
       </c>
       <c r="F114" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4501,19 +4507,19 @@
         <v>333</v>
       </c>
       <c r="B115" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C115">
         <v>513820</v>
       </c>
       <c r="D115" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E115" s="1">
         <v>138192221</v>
       </c>
       <c r="F115" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4521,19 +4527,19 @@
         <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C116">
         <v>515450</v>
       </c>
       <c r="D116" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E116" s="1">
         <v>137953179</v>
       </c>
       <c r="F116" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4541,19 +4547,19 @@
         <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C117">
         <v>561330</v>
       </c>
       <c r="D117" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E117" s="1">
         <v>136822666</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4561,19 +4567,19 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C118">
         <v>560980</v>
       </c>
       <c r="D118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E118" s="1">
         <v>136734330</v>
       </c>
       <c r="F118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4581,19 +4587,19 @@
         <v>439</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C119">
         <v>159638</v>
       </c>
       <c r="D119" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E119" s="1">
         <v>131882480.429</v>
       </c>
       <c r="F119" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4601,19 +4607,19 @@
         <v>368</v>
       </c>
       <c r="B120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C120">
         <v>589020</v>
       </c>
       <c r="D120" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E120" s="1">
         <v>131163211</v>
       </c>
       <c r="F120" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4621,19 +4627,19 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C121">
         <v>159595</v>
       </c>
       <c r="D121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E121" s="1">
         <v>127370683.849</v>
       </c>
       <c r="F121" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4641,19 +4647,19 @@
         <v>369</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C122">
         <v>589680</v>
       </c>
       <c r="D122" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E122" s="1">
         <v>127286667</v>
       </c>
       <c r="F122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4661,19 +4667,19 @@
         <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C123">
         <v>515400</v>
       </c>
       <c r="D123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E123" s="1">
         <v>125323162</v>
       </c>
       <c r="F123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4681,19 +4687,19 @@
         <v>387</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C124">
         <v>515100</v>
       </c>
       <c r="D124" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E124" s="1">
         <v>125260003</v>
       </c>
       <c r="F124" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4701,19 +4707,19 @@
         <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C125">
         <v>159876</v>
       </c>
       <c r="D125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E125" s="1">
         <v>123245013.1</v>
       </c>
       <c r="F125" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4721,19 +4727,19 @@
         <v>386</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C126">
         <v>563020</v>
       </c>
       <c r="D126" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E126" s="1">
         <v>122810820</v>
       </c>
       <c r="F126" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4741,19 +4747,19 @@
         <v>436</v>
       </c>
       <c r="B127" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C127">
         <v>515170</v>
       </c>
       <c r="D127" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E127" s="1">
         <v>122185499</v>
       </c>
       <c r="F127" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4761,19 +4767,19 @@
         <v>396</v>
       </c>
       <c r="B128" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C128">
         <v>159599</v>
       </c>
       <c r="D128" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E128" s="1">
         <v>121376701.7</v>
       </c>
       <c r="F128" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4781,19 +4787,19 @@
         <v>300</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C129">
         <v>159732</v>
       </c>
       <c r="D129" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E129" s="1">
         <v>118157742.862</v>
       </c>
       <c r="F129" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4801,19 +4807,19 @@
         <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C130">
         <v>159545</v>
       </c>
       <c r="D130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E130" s="1">
         <v>114236866.2</v>
       </c>
       <c r="F130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4821,19 +4827,19 @@
         <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C131">
         <v>159859</v>
       </c>
       <c r="D131" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E131" s="1">
         <v>113769518.518</v>
       </c>
       <c r="F131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4841,19 +4847,19 @@
         <v>77</v>
       </c>
       <c r="B132" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C132">
         <v>589070</v>
       </c>
       <c r="D132" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E132" s="1">
         <v>112262082</v>
       </c>
       <c r="F132" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4861,19 +4867,19 @@
         <v>321</v>
       </c>
       <c r="B133" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C133">
         <v>513200</v>
       </c>
       <c r="D133" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E133" s="1">
         <v>112051479</v>
       </c>
       <c r="F133" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4881,19 +4887,19 @@
         <v>297</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C134">
         <v>515650</v>
       </c>
       <c r="D134" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E134" s="1">
         <v>105207073</v>
       </c>
       <c r="F134" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4901,19 +4907,19 @@
         <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C135">
         <v>159667</v>
       </c>
       <c r="D135" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E135" s="1">
         <v>103840270.3</v>
       </c>
       <c r="F135" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4921,19 +4927,19 @@
         <v>292</v>
       </c>
       <c r="B136" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C136">
         <v>513660</v>
       </c>
       <c r="D136" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E136" s="1">
         <v>101838666</v>
       </c>
       <c r="F136" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
